--- a/Wbs.Everdigm.Web/Wbs.Everdigm.Web/files/equipment.daily.work.time.xlsx
+++ b/Wbs.Everdigm.Web/Wbs.Everdigm.Web/files/equipment.daily.work.time.xlsx
@@ -15,14 +15,14 @@
     <sheet name="print report form" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'print report form'!$1:$12</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'print report form'!$1:$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Equipment</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,10 +33,6 @@
   </si>
   <si>
     <t>Operation to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -81,6 +77,22 @@
   </si>
   <si>
     <t xml:space="preserve">  Everdigm Mongolia LLC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery out date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +288,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -667,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:L1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -689,14 +704,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="4"/>
@@ -708,123 +723,112 @@
       <c r="B4" s="9"/>
       <c r="C4" s="4"/>
       <c r="H4" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="10"/>
       <c r="H6" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="12"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="12"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>7</v>
+      <c r="C14" s="2"/>
+      <c r="D14" s="27"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="27"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="B15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>5</v>
+      <c r="G15" s="20" t="s">
+        <v>4</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="H15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="24"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
@@ -1112,7 +1116,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="C42" s="16"/>
@@ -1123,7 +1127,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="17"/>
       <c r="C43" s="16"/>
@@ -1139,32 +1143,35 @@
       <c r="B44" s="17"/>
       <c r="C44" s="16"/>
       <c r="D44" s="24"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="14"/>
       <c r="G44" s="17"/>
       <c r="H44" s="16"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
       <c r="D45" s="24"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="14"/>
       <c r="G45" s="17"/>
       <c r="H45" s="16"/>
       <c r="I45" s="24"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="C46" s="16"/>
       <c r="D46" s="24"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="14"/>
       <c r="G46" s="17"/>
       <c r="H46" s="16"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="17"/>
       <c r="C47" s="16"/>
@@ -1216,30 +1223,42 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="24"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="24"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="15"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="24"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="15"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="18"/>
       <c r="C55" s="21"/>
       <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="18"/>
       <c r="C56" s="21"/>
       <c r="H56" s="21"/>
@@ -6908,9 +6927,27 @@
       <c r="C1000" s="21"/>
       <c r="H1000" s="21"/>
     </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1001" s="15"/>
+      <c r="B1001" s="18"/>
+      <c r="C1001" s="21"/>
+      <c r="H1001" s="21"/>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1002" s="15"/>
+      <c r="B1002" s="18"/>
+      <c r="C1002" s="21"/>
+      <c r="H1002" s="21"/>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1003" s="15"/>
+      <c r="B1003" s="18"/>
+      <c r="C1003" s="21"/>
+      <c r="H1003" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
